--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41184.91052727823</v>
+        <v>-32311.23562302202</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25330316.0638476</v>
+        <v>25335728.00554821</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20626929.96730866</v>
+        <v>20625872.53731965</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1785094.471209176</v>
+        <v>1785728.585529966</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.28507488358404</v>
+        <v>40.88018142109519</v>
       </c>
       <c r="K2" t="n">
-        <v>35.12399553673127</v>
+        <v>40.5121283012307</v>
       </c>
       <c r="L2" t="n">
-        <v>28.47824703393654</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M2" t="n">
-        <v>18.73185804160391</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N2" t="n">
-        <v>17.14749202420371</v>
+        <v>24.70558680915735</v>
       </c>
       <c r="O2" t="n">
-        <v>21.64722461951303</v>
+        <v>28.78411920260946</v>
       </c>
       <c r="P2" t="n">
-        <v>32.58945119244859</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.18035332317012</v>
+        <v>48.7545716309821</v>
       </c>
       <c r="R2" t="n">
-        <v>60.63953250900509</v>
+        <v>63.30032116317597</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>29.90494529109833</v>
+        <v>32.04616611589456</v>
       </c>
       <c r="K3" t="n">
-        <v>19.13988639553256</v>
+        <v>22.79957383374449</v>
       </c>
       <c r="L3" t="n">
-        <v>6.785808794917685</v>
+        <v>11.70671018907476</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.697650023750555</v>
+        <v>9.089916217646909</v>
       </c>
       <c r="P3" t="n">
-        <v>10.87667177962185</v>
+        <v>15.20444079080882</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.69225648436268</v>
+        <v>30.58525545770977</v>
       </c>
       <c r="R3" t="n">
-        <v>44.89460795773296</v>
+        <v>46.3017442093376</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>37.96713772285098</v>
+        <v>39.31047085697391</v>
       </c>
       <c r="K4" t="n">
-        <v>30.12158188642509</v>
+        <v>32.32909088142202</v>
       </c>
       <c r="L4" t="n">
-        <v>26.31106434786214</v>
+        <v>29.1359158427119</v>
       </c>
       <c r="M4" t="n">
-        <v>26.40839431103658</v>
+        <v>29.38680413894989</v>
       </c>
       <c r="N4" t="n">
-        <v>22.56601930391407</v>
+        <v>25.47360920319289</v>
       </c>
       <c r="O4" t="n">
-        <v>29.15327125498115</v>
+        <v>31.8389011340275</v>
       </c>
       <c r="P4" t="n">
-        <v>32.74373904234409</v>
+        <v>35.04175936076656</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.41052227552</v>
+        <v>47.00155242833039</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>34.81979492599199</v>
+        <v>37.28507488358404</v>
       </c>
       <c r="K5" t="n">
-        <v>31.42917993820345</v>
+        <v>35.12399553673127</v>
       </c>
       <c r="L5" t="n">
-        <v>23.89450156601852</v>
+        <v>28.47824703393654</v>
       </c>
       <c r="M5" t="n">
-        <v>13.63155801534685</v>
+        <v>18.73185804160391</v>
       </c>
       <c r="N5" t="n">
-        <v>11.96466381132231</v>
+        <v>17.14749202420371</v>
       </c>
       <c r="O5" t="n">
-        <v>16.75322690579426</v>
+        <v>21.64722461951303</v>
       </c>
       <c r="P5" t="n">
-        <v>28.41253737042842</v>
+        <v>32.58945119244859</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04366499467729</v>
+        <v>44.18035332317012</v>
       </c>
       <c r="R5" t="n">
-        <v>58.81494431611752</v>
+        <v>60.63953250900509</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>28.43664143721497</v>
+        <v>29.90494529109833</v>
       </c>
       <c r="K6" t="n">
-        <v>16.63032124124894</v>
+        <v>19.13988639553256</v>
       </c>
       <c r="L6" t="n">
-        <v>3.411388745407635</v>
+        <v>6.785808794917685</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3.697650023750555</v>
       </c>
       <c r="P6" t="n">
-        <v>7.908981644977501</v>
+        <v>10.87667177962185</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.70843422154194</v>
+        <v>27.69225648436268</v>
       </c>
       <c r="R6" t="n">
-        <v>43.92968946019</v>
+        <v>44.89460795773296</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>37.04597107107902</v>
+        <v>37.96713772285098</v>
       </c>
       <c r="K7" t="n">
-        <v>28.6078221063498</v>
+        <v>30.12158188642509</v>
       </c>
       <c r="L7" t="n">
-        <v>24.37397299861712</v>
+        <v>26.31106434786214</v>
       </c>
       <c r="M7" t="n">
-        <v>24.3660030835062</v>
+        <v>26.40839431103658</v>
       </c>
       <c r="N7" t="n">
-        <v>20.57219157480551</v>
+        <v>22.56601930391407</v>
       </c>
       <c r="O7" t="n">
-        <v>27.31164863678001</v>
+        <v>29.15327125498115</v>
       </c>
       <c r="P7" t="n">
-        <v>31.16791274233458</v>
+        <v>32.74373904234409</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.31950182682881</v>
+        <v>45.41052227552</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>32.32750642064433</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K8" t="n">
-        <v>27.69388552783373</v>
+        <v>31.42917993820345</v>
       </c>
       <c r="L8" t="n">
-        <v>19.2605385526292</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M8" t="n">
-        <v>8.475381293867869</v>
+        <v>13.63155801534685</v>
       </c>
       <c r="N8" t="n">
-        <v>6.72505475987299</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O8" t="n">
-        <v>11.80561265633085</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P8" t="n">
-        <v>24.18986307561259</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q8" t="n">
-        <v>37.87261245685656</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R8" t="n">
-        <v>56.97036671910967</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>26.95225147731545</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K9" t="n">
-        <v>14.09326236962642</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.411388745407635</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.908778772589713</v>
+        <v>7.908981644977501</v>
       </c>
       <c r="Q9" t="n">
-        <v>23.70287805456196</v>
+        <v>25.70843422154194</v>
       </c>
       <c r="R9" t="n">
-        <v>42.95419973026392</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>36.11471251334376</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K10" t="n">
-        <v>27.07747822466578</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L10" t="n">
-        <v>22.41565970901928</v>
+        <v>24.37397299861712</v>
       </c>
       <c r="M10" t="n">
-        <v>22.30123629540936</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N10" t="n">
-        <v>18.55652032594892</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O10" t="n">
-        <v>25.44984999261544</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P10" t="n">
-        <v>29.57482236659715</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.21652862697032</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K11" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L11" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M11" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P11" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R11" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K12" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R12" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K13" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L13" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M13" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N13" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O13" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P13" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K14" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L14" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M14" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P14" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R14" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K15" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R15" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K16" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L16" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M16" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N16" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O16" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P16" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K17" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L17" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M17" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P17" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R17" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K18" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R18" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K19" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L19" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M19" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N19" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O19" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P19" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K20" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L20" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M20" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P20" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R20" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K21" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R21" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K22" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L22" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N22" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O22" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P22" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K23" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L23" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M23" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P23" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R23" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K24" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R24" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K25" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L25" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M25" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N25" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O25" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P25" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K26" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L26" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M26" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P26" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R26" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K27" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R27" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K28" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L28" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M28" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N28" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O28" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P28" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K29" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L29" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M29" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P29" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R29" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K30" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R30" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K31" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L31" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M31" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N31" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O31" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P31" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K32" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L32" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M32" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P32" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q32" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R32" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K33" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R33" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K34" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L34" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M34" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N34" t="n">
-        <v>15.9693999142242</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O34" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P34" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K35" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L35" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M35" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P35" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R35" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K36" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R36" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K37" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L37" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M37" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N37" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O37" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P37" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K38" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L38" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M38" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P38" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R38" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K39" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R39" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K40" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L40" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M40" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N40" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O40" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P40" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.12864625545149</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K41" t="n">
-        <v>22.89962335916381</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L41" t="n">
-        <v>13.31283239473387</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M41" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>5.455334146684052</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P41" t="n">
-        <v>18.77004728651482</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.80255651301093</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R41" t="n">
-        <v>54.60284554970459</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>25.04703227731259</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K42" t="n">
-        <v>10.83693929797212</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.1287403823609</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R42" t="n">
-        <v>41.70215558211665</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.91943921434874</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K43" t="n">
-        <v>25.11327702096816</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L43" t="n">
-        <v>19.90215841909198</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M43" t="n">
-        <v>19.6511016040668</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N43" t="n">
-        <v>15.9693999142242</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O43" t="n">
-        <v>23.06022555481493</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P43" t="n">
-        <v>27.53008583968064</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.80085904267777</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.12864625545149</v>
+        <v>26.38060125819129</v>
       </c>
       <c r="K44" t="n">
-        <v>22.89962335916381</v>
+        <v>18.78101626544829</v>
       </c>
       <c r="L44" t="n">
-        <v>13.31283239473387</v>
+        <v>8.203336102828075</v>
       </c>
       <c r="M44" t="n">
-        <v>1.857412192921856</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5.455334146684052</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>18.77004728651482</v>
+        <v>14.11404580593616</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.80255651301093</v>
+        <v>30.30609330503575</v>
       </c>
       <c r="R44" t="n">
-        <v>54.60284554970459</v>
+        <v>52.568978994272</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>25.04703227731259</v>
+        <v>23.41031550293732</v>
       </c>
       <c r="K45" t="n">
-        <v>10.83693929797212</v>
+        <v>8.039529638152509</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.058008913728727</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.1287403823609</v>
+        <v>18.91737577526663</v>
       </c>
       <c r="R45" t="n">
-        <v>41.70215558211665</v>
+        <v>40.62656193938621</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.91943921434874</v>
+        <v>33.89261570846287</v>
       </c>
       <c r="K46" t="n">
-        <v>25.11327702096816</v>
+        <v>23.42589057308062</v>
       </c>
       <c r="L46" t="n">
-        <v>19.90215841909198</v>
+        <v>17.74288471261679</v>
       </c>
       <c r="M46" t="n">
-        <v>19.6511016040668</v>
+        <v>17.37445023310241</v>
       </c>
       <c r="N46" t="n">
-        <v>15.9693999142242</v>
+        <v>13.74688222429532</v>
       </c>
       <c r="O46" t="n">
-        <v>23.06022555481493</v>
+        <v>21.00737074325346</v>
       </c>
       <c r="P46" t="n">
-        <v>27.53008583968064</v>
+        <v>25.77351390676234</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.80085904267777</v>
+        <v>40.58469968653597</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22559,13 +22561,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.2163880441079</v>
+        <v>404.2587463296498</v>
       </c>
       <c r="H2" t="n">
-        <v>303.4508422388722</v>
+        <v>303.8846440306781</v>
       </c>
       <c r="I2" t="n">
-        <v>69.11834381539616</v>
+        <v>70.75136161874995</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>124.2523906577833</v>
+        <v>125.2176300895691</v>
       </c>
       <c r="T2" t="n">
-        <v>218.1256748333563</v>
+        <v>218.3110982283159</v>
       </c>
       <c r="U2" t="n">
-        <v>254.4559177653259</v>
+        <v>254.4593064281693</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22638,13 +22640,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.6930234561154</v>
+        <v>105.7156871369127</v>
       </c>
       <c r="H3" t="n">
-        <v>67.84558205340525</v>
+        <v>68.06446549689447</v>
       </c>
       <c r="I3" t="n">
-        <v>12.71905894793251</v>
+        <v>13.49936550169744</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>102.6901904232857</v>
+        <v>103.1111583538838</v>
       </c>
       <c r="T3" t="n">
-        <v>156.8327176907766</v>
+        <v>156.9240682287269</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3623561674602</v>
+        <v>195.3638471990916</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -22717,13 +22719,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.3874202901603</v>
+        <v>165.4064207588183</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4179569850202</v>
+        <v>146.5868884245434</v>
       </c>
       <c r="I4" t="n">
-        <v>109.4547270939081</v>
+        <v>110.0261230059151</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>75.85590789965747</v>
+        <v>76.71023806313595</v>
       </c>
       <c r="S4" t="n">
-        <v>181.2085322879926</v>
+        <v>181.5396586372421</v>
       </c>
       <c r="T4" t="n">
-        <v>236.3394386278895</v>
+        <v>236.4206224485193</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9608132663429</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -22796,13 +22798,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.1873416079885</v>
+        <v>404.2163880441079</v>
       </c>
       <c r="H5" t="n">
-        <v>303.153370424964</v>
+        <v>303.4508422388722</v>
       </c>
       <c r="I5" t="n">
-        <v>67.99853108690158</v>
+        <v>69.11834381539616</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.5904949947116</v>
+        <v>124.2523906577833</v>
       </c>
       <c r="T5" t="n">
-        <v>217.9985240592434</v>
+        <v>218.1256748333563</v>
       </c>
       <c r="U5" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4559177653259</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -22875,13 +22877,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6930234561154</v>
       </c>
       <c r="H6" t="n">
-        <v>67.69548664993043</v>
+        <v>67.84558205340525</v>
       </c>
       <c r="I6" t="n">
-        <v>12.18397769576295</v>
+        <v>12.71905894793251</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,13 +22913,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>102.4015191999815</v>
+        <v>102.6901904232857</v>
       </c>
       <c r="T6" t="n">
-        <v>156.7700756945035</v>
+        <v>156.8327176907766</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3623561674602</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -22954,13 +22956,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3874202901603</v>
       </c>
       <c r="H7" t="n">
-        <v>146.3021152741505</v>
+        <v>146.4179569850202</v>
       </c>
       <c r="I7" t="n">
-        <v>109.062902574934</v>
+        <v>109.4547270939081</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.27006628211034</v>
+        <v>75.85590789965747</v>
       </c>
       <c r="S7" t="n">
-        <v>180.9814683209813</v>
+        <v>181.2085322879926</v>
       </c>
       <c r="T7" t="n">
-        <v>236.2837682760401</v>
+        <v>236.3394386278895</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9597768771433</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -23033,13 +23035,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.1579769515977</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H8" t="n">
-        <v>302.8526396377018</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I8" t="n">
-        <v>66.86645017139571</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9213478872065</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8699802758928</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U8" t="n">
-        <v>254.4512448779251</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23112,13 +23114,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.6617707663822</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H9" t="n">
-        <v>67.54374686571899</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I9" t="n">
-        <v>11.64303432334703</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>102.1096854188119</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T9" t="n">
-        <v>156.7067474194398</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3603000694515</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23191,13 +23193,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.3612190849339</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H10" t="n">
-        <v>146.1850044512799</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6667853949175</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>74.67780643556814</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S10" t="n">
-        <v>180.7519167387287</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T10" t="n">
-        <v>236.2274880237403</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9583477204947</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23270,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H11" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I11" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23349,13 +23351,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H12" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I12" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T12" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U12" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -23428,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H13" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I13" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S13" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T13" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23507,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H14" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I14" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23586,13 +23588,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H15" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I15" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T15" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U15" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23665,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H16" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I16" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S16" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T16" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23744,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H17" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I17" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23823,13 +23825,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H18" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I18" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T18" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U18" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23902,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H19" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I19" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S19" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T19" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23981,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H20" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I20" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24060,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H21" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I21" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T21" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U21" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24139,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H22" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I22" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S22" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T22" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24218,13 +24220,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H23" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I23" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24297,13 +24299,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H24" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I24" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T24" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U24" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H25" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I25" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S25" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T25" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24455,13 +24457,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H26" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I26" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24534,13 +24536,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H27" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I27" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T27" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U27" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -24613,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H28" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I28" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S28" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T28" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24692,13 +24694,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H29" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I29" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24771,13 +24773,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H30" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I30" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T30" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U30" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -24850,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H31" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I31" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S31" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T31" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24929,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H32" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I32" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -25008,13 +25010,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H33" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I33" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T33" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U33" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25087,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H34" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I34" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S34" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T34" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25166,13 +25168,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H35" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I35" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25245,13 +25247,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H36" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I36" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T36" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U36" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25324,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I37" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S37" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T37" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25403,13 +25405,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H38" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I38" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25482,13 +25484,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H39" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I39" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T39" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U39" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -25561,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I40" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S40" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T40" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25640,13 +25642,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1202873224108</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H41" t="n">
-        <v>302.4666507227926</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I41" t="n">
-        <v>65.41342074217175</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>122.0624954621124</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7049939241276</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25719,13 +25721,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.6416050369546</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H42" t="n">
-        <v>67.34898837361527</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I42" t="n">
-        <v>10.94873179700088</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>101.7351158393118</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T42" t="n">
-        <v>156.6254653784574</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U42" t="n">
-        <v>195.358973376726</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25798,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.3443128147925</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H43" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I43" t="n">
-        <v>108.158367743757</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.91763905266609</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S43" t="n">
-        <v>180.457286558174</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T43" t="n">
-        <v>236.1552521422272</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25877,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1202873224108</v>
+        <v>404.0879092903661</v>
       </c>
       <c r="H44" t="n">
-        <v>302.4666507227926</v>
+        <v>302.135059202114</v>
       </c>
       <c r="I44" t="n">
-        <v>65.41342074217175</v>
+        <v>64.16516666176557</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0624954621124</v>
+        <v>121.3246810568921</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7049939241276</v>
+        <v>217.5632590888516</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4482297075902</v>
+        <v>254.4456394650266</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,13 +25958,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6416050369546</v>
+        <v>105.624281262545</v>
       </c>
       <c r="H45" t="n">
-        <v>67.34898837361527</v>
+        <v>67.18167718392239</v>
       </c>
       <c r="I45" t="n">
-        <v>10.94873179700088</v>
+        <v>10.35227728333644</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>101.7351158393118</v>
+        <v>101.4133343277998</v>
       </c>
       <c r="T45" t="n">
-        <v>156.6254653784574</v>
+        <v>156.5556384105519</v>
       </c>
       <c r="U45" t="n">
-        <v>195.358973376726</v>
+        <v>195.3578336547253</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3443128147925</v>
+        <v>165.3297891442708</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0346923403866</v>
+        <v>145.9055637061116</v>
       </c>
       <c r="I46" t="n">
-        <v>108.158367743757</v>
+        <v>107.7216013611582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.91763905266609</v>
+        <v>73.26460201266204</v>
       </c>
       <c r="S46" t="n">
-        <v>180.457286558174</v>
+        <v>180.2041785909909</v>
       </c>
       <c r="T46" t="n">
-        <v>236.1552521422272</v>
+        <v>236.0931964590889</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9574255603051</v>
+        <v>279.9566333600948</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>156113.5277839694</v>
+        <v>157170.8636373421</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>155434.3932684392</v>
+        <v>156113.5277839694</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>154791.4053913147</v>
+        <v>155434.3932684392</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>154017.1820601074</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154017.1820601074</v>
+        <v>153588.5632104267</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>30112.57524195032</v>
+      </c>
+      <c r="C2" t="n">
         <v>30224.62922764771</v>
       </c>
-      <c r="C2" t="n">
-        <v>30301.46824263263</v>
-      </c>
       <c r="D2" t="n">
-        <v>30379.14907284395</v>
+        <v>30301.46824263262</v>
       </c>
       <c r="E2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="F2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="G2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="H2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="I2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="J2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910095</v>
       </c>
       <c r="K2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="L2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="M2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="N2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="O2" t="n">
-        <v>30478.8526636718</v>
+        <v>30506.83566910094</v>
       </c>
       <c r="P2" t="n">
-        <v>30478.8526636718</v>
+        <v>30564.50503352672</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101779.2516440874</v>
+        <v>91626.024235875</v>
       </c>
       <c r="C3" t="n">
-        <v>6579.373527278807</v>
+        <v>9594.670458340697</v>
       </c>
       <c r="D3" t="n">
-        <v>6255.640331017298</v>
+        <v>6187.848917519347</v>
       </c>
       <c r="E3" t="n">
-        <v>7532.140337942944</v>
+        <v>15514.54931721071</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3609.250063079194</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>11626.7499679156</v>
+      </c>
+      <c r="C4" t="n">
         <v>10027.81985033872</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>8977.296762381626</v>
       </c>
-      <c r="D4" t="n">
-        <v>7958.851539235618</v>
-      </c>
       <c r="E4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="F4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="G4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="H4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="I4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="J4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="K4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="L4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="M4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="N4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="O4" t="n">
-        <v>6702.727519027028</v>
+        <v>6391.763272502923</v>
       </c>
       <c r="P4" t="n">
-        <v>6702.727519027028</v>
+        <v>5860.122215047531</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>35700.4729566144</v>
+      </c>
+      <c r="C5" t="n">
         <v>35930.17134953669</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>36087.68291100337</v>
       </c>
-      <c r="D5" t="n">
-        <v>36246.92010144652</v>
-      </c>
       <c r="E5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="F5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="G5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="H5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="I5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="J5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="K5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="L5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="M5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="N5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="O5" t="n">
-        <v>2823.701538119219</v>
+        <v>2881.063633150532</v>
       </c>
       <c r="P5" t="n">
-        <v>2823.701538119219</v>
+        <v>2999.279511390021</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117512.6136163151</v>
+        <v>-108840.6719184547</v>
       </c>
       <c r="C6" t="n">
-        <v>-21342.88495803118</v>
+        <v>-25328.03243056839</v>
       </c>
       <c r="D6" t="n">
-        <v>-20082.26289885549</v>
+        <v>-20951.36034827172</v>
       </c>
       <c r="E6" t="n">
-        <v>13420.28326858261</v>
+        <v>5719.459446236779</v>
       </c>
       <c r="F6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344749</v>
       </c>
       <c r="G6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344748</v>
       </c>
       <c r="H6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344749</v>
       </c>
       <c r="I6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344749</v>
       </c>
       <c r="J6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344749</v>
       </c>
       <c r="K6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344749</v>
       </c>
       <c r="L6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344749</v>
       </c>
       <c r="M6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344748</v>
       </c>
       <c r="N6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344749</v>
       </c>
       <c r="O6" t="n">
-        <v>20952.42360652555</v>
+        <v>21234.00876344748</v>
       </c>
       <c r="P6" t="n">
-        <v>20952.42360652555</v>
+        <v>18095.85324400998</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>95.08591544102765</v>
+      </c>
+      <c r="C3" t="n">
         <v>105.6225389695733</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>112.8478399542832</v>
       </c>
-      <c r="D3" t="n">
-        <v>120.1522982314917</v>
-      </c>
       <c r="E3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="F3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="G3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="H3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="I3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="J3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="K3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="L3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="N3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="O3" t="n">
-        <v>129.5275934917073</v>
+        <v>132.1588822546115</v>
       </c>
       <c r="P3" t="n">
-        <v>129.5275934917073</v>
+        <v>137.581628962845</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.6225389695733</v>
+        <v>95.08591544102765</v>
       </c>
       <c r="C3" t="n">
+        <v>10.53662352854562</v>
+      </c>
+      <c r="D3" t="n">
         <v>7.225300984709904</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.304458277208568</v>
-      </c>
       <c r="E3" t="n">
-        <v>9.375295260215537</v>
+        <v>19.31104230032837</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.422746708233461</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4246132219882339</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H2" t="n">
-        <v>4.348570159687002</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I2" t="n">
-        <v>16.36990124070141</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J2" t="n">
-        <v>36.0385164497239</v>
+        <v>32.44340991221275</v>
       </c>
       <c r="K2" t="n">
-        <v>54.01239413648585</v>
+        <v>48.62426137198642</v>
       </c>
       <c r="L2" t="n">
-        <v>67.00715102890828</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M2" t="n">
-        <v>74.55836641544154</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N2" t="n">
-        <v>75.76479873241561</v>
+        <v>68.20670394746197</v>
       </c>
       <c r="O2" t="n">
-        <v>71.5425510062701</v>
+        <v>64.40565642317367</v>
       </c>
       <c r="P2" t="n">
-        <v>61.05991208843557</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.85345107598193</v>
+        <v>41.27923276816995</v>
       </c>
       <c r="R2" t="n">
-        <v>26.67261030571842</v>
+        <v>24.01182165154755</v>
       </c>
       <c r="S2" t="n">
-        <v>9.675873796056891</v>
+        <v>8.710634364271028</v>
       </c>
       <c r="T2" t="n">
-        <v>1.858744379253495</v>
+        <v>1.673320984293863</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03396905775905871</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2271881026892708</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H3" t="n">
-        <v>2.194158781235853</v>
+        <v>1.975275337746631</v>
       </c>
       <c r="I3" t="n">
-        <v>7.822046518029719</v>
+        <v>7.041739964264785</v>
       </c>
       <c r="J3" t="n">
-        <v>21.46429350890168</v>
+        <v>19.32307268410544</v>
       </c>
       <c r="K3" t="n">
-        <v>36.68589638908283</v>
+        <v>33.0262089508709</v>
       </c>
       <c r="L3" t="n">
-        <v>49.32871501593137</v>
+        <v>44.40781362177429</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>54.05382897624944</v>
+        <v>48.66156278235309</v>
       </c>
       <c r="P3" t="n">
-        <v>43.3829632231819</v>
+        <v>39.05519421199493</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.00036202047604</v>
+        <v>26.10736304712895</v>
       </c>
       <c r="R3" t="n">
-        <v>14.10559114767245</v>
+        <v>12.69845489606781</v>
       </c>
       <c r="S3" t="n">
-        <v>4.219919363548515</v>
+        <v>3.798951432950489</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9157274840852623</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01494658570324151</v>
+        <v>0.01345555407184354</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1904668735516895</v>
+        <v>0.1714664048936564</v>
       </c>
       <c r="H4" t="n">
-        <v>1.693423657577749</v>
+        <v>1.52449221805451</v>
       </c>
       <c r="I4" t="n">
-        <v>5.72785834280899</v>
+        <v>5.15646243080196</v>
       </c>
       <c r="J4" t="n">
-        <v>13.46600796010445</v>
+        <v>12.12267482598151</v>
       </c>
       <c r="K4" t="n">
-        <v>22.12878767264174</v>
+        <v>19.9212786776448</v>
       </c>
       <c r="L4" t="n">
-        <v>28.31722954603936</v>
+        <v>25.49237805118961</v>
       </c>
       <c r="M4" t="n">
-        <v>29.85654818774346</v>
+        <v>26.87813835983015</v>
       </c>
       <c r="N4" t="n">
-        <v>29.14662620450537</v>
+        <v>26.23903630522655</v>
       </c>
       <c r="O4" t="n">
-        <v>26.92162681801517</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P4" t="n">
-        <v>23.03610259756069</v>
+        <v>20.73808227913822</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.94900338440556</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R4" t="n">
-        <v>8.564083241696872</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S4" t="n">
-        <v>3.31931815089626</v>
+        <v>2.98819180164672</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8138130051754003</v>
+        <v>0.7326291845456226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01038910219372853</v>
+        <v>0.009352712994199451</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.4246132219882339</v>
       </c>
       <c r="H5" t="n">
-        <v>4.646041973595184</v>
+        <v>4.348570159687002</v>
       </c>
       <c r="I5" t="n">
-        <v>17.48971396919599</v>
+        <v>16.36990124070141</v>
       </c>
       <c r="J5" t="n">
-        <v>38.50379640731595</v>
+        <v>36.0385164497239</v>
       </c>
       <c r="K5" t="n">
-        <v>57.70720973501367</v>
+        <v>54.01239413648585</v>
       </c>
       <c r="L5" t="n">
-        <v>71.5908964968263</v>
+        <v>67.00715102890828</v>
       </c>
       <c r="M5" t="n">
-        <v>79.6586664416986</v>
+        <v>74.55836641544154</v>
       </c>
       <c r="N5" t="n">
-        <v>80.94762694529702</v>
+        <v>75.76479873241561</v>
       </c>
       <c r="O5" t="n">
-        <v>76.43654871998886</v>
+        <v>71.5425510062701</v>
       </c>
       <c r="P5" t="n">
-        <v>65.23682591045574</v>
+        <v>61.05991208843557</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.99013940447476</v>
+        <v>45.85345107598193</v>
       </c>
       <c r="R5" t="n">
-        <v>28.497198498606</v>
+        <v>26.67261030571842</v>
       </c>
       <c r="S5" t="n">
-        <v>10.33776945912856</v>
+        <v>9.675873796056891</v>
       </c>
       <c r="T5" t="n">
-        <v>1.985895153366329</v>
+        <v>1.858744379253495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.03396905775905871</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2271881026892708</v>
       </c>
       <c r="H6" t="n">
-        <v>2.344254184710675</v>
+        <v>2.194158781235853</v>
       </c>
       <c r="I6" t="n">
-        <v>8.357127770199273</v>
+        <v>7.822046518029719</v>
       </c>
       <c r="J6" t="n">
-        <v>22.93259736278504</v>
+        <v>21.46429350890168</v>
       </c>
       <c r="K6" t="n">
-        <v>39.19546154336646</v>
+        <v>36.68589638908283</v>
       </c>
       <c r="L6" t="n">
-        <v>52.70313506544142</v>
+        <v>49.32871501593137</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -31379,25 +31381,25 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>54.05382897624944</v>
       </c>
       <c r="P6" t="n">
-        <v>46.35065335782625</v>
+        <v>43.3829632231819</v>
       </c>
       <c r="Q6" t="n">
-        <v>30.98418428329678</v>
+        <v>29.00036202047604</v>
       </c>
       <c r="R6" t="n">
-        <v>15.07050964521541</v>
+        <v>14.10559114767245</v>
       </c>
       <c r="S6" t="n">
-        <v>4.508590586852725</v>
+        <v>4.219919363548515</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9783694803583604</v>
+        <v>0.9157274840852623</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0159690339557948</v>
+        <v>0.01494658570324151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.1904668735516895</v>
       </c>
       <c r="H7" t="n">
-        <v>1.809265368447361</v>
+        <v>1.693423657577749</v>
       </c>
       <c r="I7" t="n">
-        <v>6.119682861783096</v>
+        <v>5.72785834280899</v>
       </c>
       <c r="J7" t="n">
-        <v>14.38717461187639</v>
+        <v>13.46600796010445</v>
       </c>
       <c r="K7" t="n">
-        <v>23.64254745271703</v>
+        <v>22.12878767264174</v>
       </c>
       <c r="L7" t="n">
-        <v>30.25432089528438</v>
+        <v>28.31722954603936</v>
       </c>
       <c r="M7" t="n">
-        <v>31.89893941527384</v>
+        <v>29.85654818774346</v>
       </c>
       <c r="N7" t="n">
-        <v>31.14045393361393</v>
+        <v>29.14662620450537</v>
       </c>
       <c r="O7" t="n">
-        <v>28.76324943621632</v>
+        <v>26.92162681801517</v>
       </c>
       <c r="P7" t="n">
-        <v>24.61192889757021</v>
+        <v>23.03610259756069</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.04002383309676</v>
+        <v>15.94900338440556</v>
       </c>
       <c r="R7" t="n">
-        <v>9.149924859244006</v>
+        <v>8.564083241696872</v>
       </c>
       <c r="S7" t="n">
-        <v>3.546382117907553</v>
+        <v>3.31931815089626</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.8138130051754003</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01038910219372853</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4830243144984589</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H8" t="n">
-        <v>4.946772760857344</v>
+        <v>4.646041973595184</v>
       </c>
       <c r="I8" t="n">
-        <v>18.62179488470185</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J8" t="n">
-        <v>40.99608491266361</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K8" t="n">
-        <v>61.4425041453834</v>
+        <v>57.70720973501367</v>
       </c>
       <c r="L8" t="n">
-        <v>76.22485951021562</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M8" t="n">
-        <v>84.81484316317758</v>
+        <v>79.6586664416986</v>
       </c>
       <c r="N8" t="n">
-        <v>86.18723599674634</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O8" t="n">
-        <v>81.38416296945228</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P8" t="n">
-        <v>69.45950020527157</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.16119194229549</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R8" t="n">
-        <v>30.34177609561385</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S8" t="n">
-        <v>11.00691656663364</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T8" t="n">
-        <v>2.114438936717005</v>
+        <v>1.985895153366329</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03864194515987671</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2584407924224539</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H9" t="n">
-        <v>2.495993968922122</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I9" t="n">
-        <v>8.898071142615191</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J9" t="n">
-        <v>24.41698732268457</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K9" t="n">
-        <v>41.73252041498898</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>52.70313506544142</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -31619,22 +31621,22 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>49.35085623021403</v>
+        <v>46.35065335782625</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.98974045027676</v>
+        <v>30.98418428329678</v>
       </c>
       <c r="R9" t="n">
-        <v>16.04599937514149</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S9" t="n">
-        <v>4.800424368022332</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T9" t="n">
-        <v>1.041697755422084</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01700268371200355</v>
+        <v>0.0159690339557948</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2166680787780998</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.926376191318016</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I10" t="n">
-        <v>6.515800041799586</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J10" t="n">
-        <v>15.31843316961166</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K10" t="n">
-        <v>25.17289133440105</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L10" t="n">
-        <v>32.21263418488223</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M10" t="n">
-        <v>33.96370620337068</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N10" t="n">
-        <v>33.15612518247052</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O10" t="n">
-        <v>30.62504808038089</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P10" t="n">
-        <v>26.20501927330763</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.14299703295525</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R10" t="n">
-        <v>9.742184705786196</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S10" t="n">
-        <v>3.775933700160156</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9257636093246082</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01181825884244182</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H11" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I11" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J11" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K11" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L11" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M11" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P11" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R11" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S11" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T11" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H12" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I12" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J12" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K12" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
@@ -31856,22 +31858,22 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R12" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S12" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T12" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H13" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I13" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J13" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K13" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L13" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M13" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N13" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O13" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P13" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R13" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S13" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H14" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I14" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J14" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K14" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L14" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M14" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P14" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R14" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S14" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T14" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H15" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I15" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J15" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K15" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
@@ -32093,22 +32095,22 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R15" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S15" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T15" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H16" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I16" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J16" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K16" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L16" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M16" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N16" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O16" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P16" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R16" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S16" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H17" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I17" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J17" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K17" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L17" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M17" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P17" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R17" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S17" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T17" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H18" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I18" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J18" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K18" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -32330,22 +32332,22 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R18" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S18" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T18" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H19" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I19" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J19" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K19" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L19" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M19" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N19" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O19" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P19" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R19" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S19" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H20" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I20" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J20" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K20" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L20" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M20" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P20" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R20" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S20" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T20" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H21" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I21" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J21" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K21" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -32567,22 +32569,22 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R21" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S21" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T21" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H22" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I22" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J22" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K22" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L22" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M22" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N22" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O22" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P22" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R22" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S22" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H23" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I23" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J23" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K23" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L23" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M23" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P23" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R23" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S23" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T23" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H24" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I24" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J24" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K24" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -32804,22 +32806,22 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R24" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S24" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T24" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H25" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I25" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J25" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K25" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L25" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M25" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N25" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O25" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P25" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R25" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S25" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H26" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I26" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J26" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K26" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L26" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M26" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P26" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R26" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S26" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T26" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H27" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I27" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J27" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K27" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -33041,22 +33043,22 @@
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R27" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S27" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T27" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H28" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I28" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J28" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K28" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L28" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M28" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N28" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O28" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P28" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R28" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S28" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H29" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I29" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J29" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K29" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L29" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M29" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P29" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R29" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S29" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T29" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H30" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I30" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J30" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K30" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -33278,22 +33280,22 @@
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R30" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S30" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T30" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H31" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I31" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J31" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K31" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L31" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M31" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N31" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O31" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P31" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R31" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S31" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H32" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I32" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J32" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K32" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L32" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M32" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P32" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R32" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S32" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T32" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H33" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I33" t="n">
-        <v>9.592373668961342</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J33" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K33" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -33515,22 +33517,22 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.56387812247782</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R33" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S33" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T33" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H34" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I34" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J34" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K34" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L34" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M34" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N34" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O34" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P34" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R34" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S34" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H35" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I35" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J35" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K35" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L35" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M35" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P35" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R35" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S35" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T35" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H36" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I36" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J36" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K36" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
@@ -33752,22 +33754,22 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R36" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S36" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T36" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H37" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I37" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J37" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K37" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L37" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M37" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N37" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O37" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P37" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R37" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S37" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H38" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I38" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J38" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K38" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L38" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M38" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P38" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R38" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S38" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T38" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H39" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I39" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J39" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K39" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
@@ -33989,22 +33991,22 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R39" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S39" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T39" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H40" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I40" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J40" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K40" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L40" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M40" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N40" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O40" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P40" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R40" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S40" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.520713943685255</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H41" t="n">
-        <v>5.332761675766619</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I41" t="n">
-        <v>20.07482431392581</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J41" t="n">
-        <v>44.19494507785645</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K41" t="n">
-        <v>66.23676631405331</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L41" t="n">
-        <v>82.17256566811095</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M41" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>87.73444147909908</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P41" t="n">
-        <v>74.87931599436934</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.23124788614112</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R41" t="n">
-        <v>32.70929726501893</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S41" t="n">
-        <v>11.86576899172776</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T41" t="n">
-        <v>2.279425288482205</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H42" t="n">
-        <v>2.690752461025844</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I42" t="n">
-        <v>9.592373668961342</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J42" t="n">
-        <v>26.32220652268742</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K42" t="n">
-        <v>44.98884348664328</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
@@ -34226,22 +34228,22 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.56387812247782</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R42" t="n">
-        <v>17.29804352328877</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S42" t="n">
-        <v>5.174993947522452</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T42" t="n">
-        <v>1.122979796404518</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H43" t="n">
-        <v>2.076688302211308</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I43" t="n">
-        <v>7.024217692960128</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J43" t="n">
-        <v>16.51370646860668</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K43" t="n">
-        <v>27.13709253809866</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L43" t="n">
-        <v>34.72613547480952</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M43" t="n">
-        <v>36.61384089471325</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N43" t="n">
-        <v>35.74324559419524</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O43" t="n">
-        <v>33.0146725181814</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P43" t="n">
-        <v>28.24975580022414</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.5586666172478</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50235208868826</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S43" t="n">
-        <v>4.070563880714799</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.520713943685255</v>
+        <v>0.5530919757300298</v>
       </c>
       <c r="H44" t="n">
-        <v>5.332761675766619</v>
+        <v>5.664353196445169</v>
       </c>
       <c r="I44" t="n">
-        <v>20.07482431392581</v>
+        <v>21.32307839433199</v>
       </c>
       <c r="J44" t="n">
-        <v>44.19494507785645</v>
+        <v>46.94299007511665</v>
       </c>
       <c r="K44" t="n">
-        <v>66.23676631405331</v>
+        <v>70.35537340776884</v>
       </c>
       <c r="L44" t="n">
-        <v>82.17256566811095</v>
+        <v>87.28206196001675</v>
       </c>
       <c r="M44" t="n">
-        <v>91.4328122641236</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>87.73444147909908</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>74.87931599436934</v>
+        <v>79.535317474948</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.23124788614112</v>
+        <v>59.72771109411629</v>
       </c>
       <c r="R44" t="n">
-        <v>32.70929726501893</v>
+        <v>34.74316382045151</v>
       </c>
       <c r="S44" t="n">
-        <v>11.86576899172776</v>
+        <v>12.60358339694807</v>
       </c>
       <c r="T44" t="n">
-        <v>2.279425288482205</v>
+        <v>2.421160123758207</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04165711549482039</v>
+        <v>0.04424735805840237</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2786065218500874</v>
+        <v>0.2959302962597044</v>
       </c>
       <c r="H45" t="n">
-        <v>2.690752461025844</v>
+        <v>2.858063650718724</v>
       </c>
       <c r="I45" t="n">
-        <v>9.592373668961342</v>
+        <v>10.18882818262579</v>
       </c>
       <c r="J45" t="n">
-        <v>26.32220652268742</v>
+        <v>27.95892329706269</v>
       </c>
       <c r="K45" t="n">
-        <v>44.98884348664328</v>
+        <v>47.78625314646288</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -34463,22 +34465,22 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>53.20162608907502</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.56387812247782</v>
+        <v>37.77524272957209</v>
       </c>
       <c r="R45" t="n">
-        <v>17.29804352328877</v>
+        <v>18.3736371660192</v>
       </c>
       <c r="S45" t="n">
-        <v>5.174993947522452</v>
+        <v>5.496775459034417</v>
       </c>
       <c r="T45" t="n">
-        <v>1.122979796404518</v>
+        <v>1.192806764309948</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01832937643750576</v>
+        <v>0.01946909843813845</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2335743489194721</v>
+        <v>0.2480980194411959</v>
       </c>
       <c r="H46" t="n">
-        <v>2.076688302211308</v>
+        <v>2.205816936486271</v>
       </c>
       <c r="I46" t="n">
-        <v>7.024217692960128</v>
+        <v>7.460984075558875</v>
       </c>
       <c r="J46" t="n">
-        <v>16.51370646860668</v>
+        <v>17.54052997449255</v>
       </c>
       <c r="K46" t="n">
-        <v>27.13709253809866</v>
+        <v>28.82447898598621</v>
       </c>
       <c r="L46" t="n">
-        <v>34.72613547480952</v>
+        <v>36.88540918128471</v>
       </c>
       <c r="M46" t="n">
-        <v>36.61384089471325</v>
+        <v>38.89049226567764</v>
       </c>
       <c r="N46" t="n">
-        <v>35.74324559419524</v>
+        <v>37.96576328412412</v>
       </c>
       <c r="O46" t="n">
-        <v>33.0146725181814</v>
+        <v>35.06752732974287</v>
       </c>
       <c r="P46" t="n">
-        <v>28.24975580022414</v>
+        <v>30.00632773314245</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.5586666172478</v>
+        <v>20.7748259733896</v>
       </c>
       <c r="R46" t="n">
-        <v>10.50235208868826</v>
+        <v>11.15538912869231</v>
       </c>
       <c r="S46" t="n">
-        <v>4.070563880714799</v>
+        <v>4.323671847897931</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9979994908377442</v>
+        <v>1.060055173976019</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01274041903197122</v>
+        <v>0.01353261924224707</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32311.23562302202</v>
+        <v>-43996.28869384502</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25335728.00554821</v>
+        <v>25330894.90502588</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20625872.53731965</v>
+        <v>20626353.11535652</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1785728.585529966</v>
+        <v>1785874.632325494</v>
       </c>
     </row>
     <row r="11">
@@ -7984,10 +7984,10 @@
         <v>40.5121283012307</v>
       </c>
       <c r="L2" t="n">
-        <v>35.16270217958864</v>
+        <v>35.16270217958865</v>
       </c>
       <c r="M2" t="n">
-        <v>26.16960234776164</v>
+        <v>26.16960234776165</v>
       </c>
       <c r="N2" t="n">
         <v>24.70558680915735</v>
@@ -7996,7 +7996,7 @@
         <v>28.78411920260946</v>
       </c>
       <c r="P2" t="n">
-        <v>38.68062560122957</v>
+        <v>38.68062560122958</v>
       </c>
       <c r="Q2" t="n">
         <v>48.7545716309821</v>
@@ -8066,7 +8066,7 @@
         <v>11.70671018907476</v>
       </c>
       <c r="M3" t="n">
-        <v>5.742459823057352</v>
+        <v>5.742459823057359</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>19.13988639553256</v>
       </c>
       <c r="L6" t="n">
-        <v>6.785808794917685</v>
+        <v>6.785808794917678</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>3.697650023750555</v>
       </c>
       <c r="P6" t="n">
-        <v>10.87667177962185</v>
+        <v>10.87667177962184</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.69225648436268</v>
+        <v>27.69225648436267</v>
       </c>
       <c r="R6" t="n">
         <v>44.89460795773296</v>
@@ -8455,13 +8455,13 @@
         <v>34.81979492599199</v>
       </c>
       <c r="K8" t="n">
-        <v>31.42917993820345</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L8" t="n">
         <v>23.89450156601852</v>
       </c>
       <c r="M8" t="n">
-        <v>13.63155801534685</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N8" t="n">
         <v>11.96466381132231</v>
@@ -8537,7 +8537,7 @@
         <v>16.63032124124894</v>
       </c>
       <c r="L9" t="n">
-        <v>3.411388745407635</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7.908981644977501</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.70843422154194</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R9" t="n">
         <v>43.92968946019</v>
@@ -8616,7 +8616,7 @@
         <v>28.6078221063498</v>
       </c>
       <c r="L10" t="n">
-        <v>24.37397299861712</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M10" t="n">
         <v>24.3660030835062</v>
@@ -8932,7 +8932,7 @@
         <v>21.55405633213152</v>
       </c>
       <c r="L14" t="n">
-        <v>11.64353751452477</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.40627785259141</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R15" t="n">
         <v>41.35075441487444</v>
@@ -9096,16 +9096,16 @@
         <v>18.90730960179207</v>
       </c>
       <c r="N16" t="n">
-        <v>15.2432936233067</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O16" t="n">
         <v>22.38954887144386</v>
       </c>
       <c r="P16" t="n">
-        <v>26.95620607407935</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.40353443947922</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>21.55405633213152</v>
       </c>
       <c r="L26" t="n">
-        <v>11.64353751452477</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.40627785259141</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R27" t="n">
         <v>41.35075441487444</v>
@@ -10044,16 +10044,16 @@
         <v>18.90730960179207</v>
       </c>
       <c r="N28" t="n">
-        <v>15.2432936233067</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O28" t="n">
         <v>22.38954887144386</v>
       </c>
       <c r="P28" t="n">
-        <v>26.95620607407935</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.40353443947922</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>21.55405633213152</v>
       </c>
       <c r="L41" t="n">
-        <v>11.64353751452477</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.40627785259141</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R42" t="n">
         <v>41.35075441487444</v>
@@ -11229,16 +11229,16 @@
         <v>18.90730960179207</v>
       </c>
       <c r="N43" t="n">
-        <v>15.2432936233067</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O43" t="n">
         <v>22.38954887144386</v>
       </c>
       <c r="P43" t="n">
-        <v>26.95620607407935</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.40353443947922</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>26.38060125819129</v>
+        <v>28.23084788503724</v>
       </c>
       <c r="K44" t="n">
-        <v>18.78101626544829</v>
+        <v>21.55405633213152</v>
       </c>
       <c r="L44" t="n">
-        <v>8.203336102828075</v>
+        <v>11.64353751452477</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>3.673052520349231</v>
       </c>
       <c r="P44" t="n">
-        <v>14.11404580593616</v>
+        <v>17.24891115298081</v>
       </c>
       <c r="Q44" t="n">
-        <v>30.30609330503575</v>
+        <v>32.66024662599554</v>
       </c>
       <c r="R44" t="n">
-        <v>52.568978994272</v>
+        <v>53.93837241300997</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>23.41031550293732</v>
+        <v>24.51230971842843</v>
       </c>
       <c r="K45" t="n">
-        <v>8.039529638152509</v>
+        <v>9.923013275483001</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.91737577526663</v>
+        <v>20.40627785259141</v>
       </c>
       <c r="R45" t="n">
-        <v>40.62656193938621</v>
+        <v>41.35075441487444</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.89261570846287</v>
+        <v>34.58397146501913</v>
       </c>
       <c r="K46" t="n">
-        <v>23.42589057308062</v>
+        <v>24.56200045719904</v>
       </c>
       <c r="L46" t="n">
-        <v>17.74288471261679</v>
+        <v>19.19671421534549</v>
       </c>
       <c r="M46" t="n">
-        <v>17.37445023310241</v>
+        <v>18.90730960179207</v>
       </c>
       <c r="N46" t="n">
-        <v>13.74688222429532</v>
+        <v>15.2432936233067</v>
       </c>
       <c r="O46" t="n">
-        <v>21.00737074325346</v>
+        <v>22.38954887144386</v>
       </c>
       <c r="P46" t="n">
-        <v>25.77351390676234</v>
+        <v>26.95620607407935</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.58469968653597</v>
+        <v>41.40353443947922</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.0879092903661</v>
+        <v>404.1097092771328</v>
       </c>
       <c r="H44" t="n">
-        <v>302.135059202114</v>
+        <v>302.3583183165892</v>
       </c>
       <c r="I44" t="n">
-        <v>64.16516666176557</v>
+        <v>65.00561065159138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>121.3246810568921</v>
+        <v>121.8214482553398</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5632590888516</v>
+        <v>217.6586885309231</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4456394650266</v>
+        <v>254.4473834639679</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25958,13 +25958,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.624281262545</v>
+        <v>105.6359452837665</v>
       </c>
       <c r="H45" t="n">
-        <v>67.18167718392239</v>
+        <v>67.29432707308776</v>
       </c>
       <c r="I45" t="n">
-        <v>10.35227728333644</v>
+        <v>10.7538674876726</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>101.4133343277998</v>
+        <v>101.6299884061901</v>
       </c>
       <c r="T45" t="n">
-        <v>156.5556384105519</v>
+        <v>156.6026526013526</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3578336547253</v>
+        <v>195.3586010245425</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3297891442708</v>
+        <v>165.339567867843</v>
       </c>
       <c r="H46" t="n">
-        <v>145.9055637061116</v>
+        <v>145.9925054484174</v>
       </c>
       <c r="I46" t="n">
-        <v>107.7216013611582</v>
+        <v>108.0156742482211</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.26460201266204</v>
+        <v>73.70428898346404</v>
       </c>
       <c r="S46" t="n">
-        <v>180.2041785909909</v>
+        <v>180.3745950736087</v>
       </c>
       <c r="T46" t="n">
-        <v>236.0931964590889</v>
+        <v>236.1349782779884</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9566333600948</v>
+        <v>279.9571667450169</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153588.5632104267</v>
+        <v>153841.4690064907</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>30112.57524195032</v>
       </c>
       <c r="C2" t="n">
-        <v>30224.62922764771</v>
+        <v>30224.62922764773</v>
       </c>
       <c r="D2" t="n">
-        <v>30301.46824263262</v>
+        <v>30301.46824263263</v>
       </c>
       <c r="E2" t="n">
         <v>30506.83566910094</v>
@@ -26334,10 +26334,10 @@
         <v>30506.83566910094</v>
       </c>
       <c r="I2" t="n">
+        <v>30506.83566910095</v>
+      </c>
+      <c r="J2" t="n">
         <v>30506.83566910094</v>
-      </c>
-      <c r="J2" t="n">
-        <v>30506.83566910095</v>
       </c>
       <c r="K2" t="n">
         <v>30506.83566910094</v>
@@ -26355,7 +26355,7 @@
         <v>30506.83566910094</v>
       </c>
       <c r="P2" t="n">
-        <v>30564.50503352672</v>
+        <v>30506.83566910094</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91626.024235875</v>
+        <v>91626.02423587498</v>
       </c>
       <c r="C3" t="n">
         <v>9594.670458340697</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3609.250063079194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>10027.81985033872</v>
       </c>
       <c r="D4" t="n">
-        <v>8977.296762381626</v>
+        <v>8977.296762381628</v>
       </c>
       <c r="E4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="F4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="G4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="H4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="I4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="J4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="K4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="L4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="M4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="N4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="O4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="P4" t="n">
-        <v>5860.122215047531</v>
+        <v>6391.763272502924</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>2881.063633150532</v>
       </c>
       <c r="P5" t="n">
-        <v>2999.279511390021</v>
+        <v>2881.063633150532</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108840.6719184547</v>
+        <v>-110218.557721763</v>
       </c>
       <c r="C6" t="n">
-        <v>-25328.03243056839</v>
+        <v>-26704.98445066256</v>
       </c>
       <c r="D6" t="n">
-        <v>-20951.36034827172</v>
+        <v>-22327.67204324102</v>
       </c>
       <c r="E6" t="n">
-        <v>5719.459446236779</v>
+        <v>4344.859146488045</v>
       </c>
       <c r="F6" t="n">
-        <v>21234.00876344749</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="G6" t="n">
-        <v>21234.00876344748</v>
+        <v>19859.40846369875</v>
       </c>
       <c r="H6" t="n">
-        <v>21234.00876344749</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="I6" t="n">
-        <v>21234.00876344749</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="J6" t="n">
-        <v>21234.00876344749</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="K6" t="n">
-        <v>21234.00876344749</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="L6" t="n">
-        <v>21234.00876344749</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="M6" t="n">
-        <v>21234.00876344748</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="N6" t="n">
-        <v>21234.00876344749</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="O6" t="n">
-        <v>21234.00876344748</v>
+        <v>19859.40846369876</v>
       </c>
       <c r="P6" t="n">
-        <v>18095.85324400998</v>
+        <v>19859.40846369876</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>132.1588822546115</v>
       </c>
       <c r="P3" t="n">
-        <v>137.581628962845</v>
+        <v>132.1588822546115</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.422746708233461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3822549364463421</v>
+        <v>0.382254936446342</v>
       </c>
       <c r="H2" t="n">
-        <v>3.914768367881102</v>
+        <v>3.914768367881101</v>
       </c>
       <c r="I2" t="n">
-        <v>14.73688343734762</v>
+        <v>14.73688343734761</v>
       </c>
       <c r="J2" t="n">
         <v>32.44340991221275</v>
@@ -31056,10 +31056,10 @@
         <v>48.62426137198642</v>
       </c>
       <c r="L2" t="n">
-        <v>60.32269588325618</v>
+        <v>60.32269588325617</v>
       </c>
       <c r="M2" t="n">
-        <v>67.12062210928381</v>
+        <v>67.1206221092838</v>
       </c>
       <c r="N2" t="n">
         <v>68.20670394746197</v>
@@ -31068,7 +31068,7 @@
         <v>64.40565642317367</v>
       </c>
       <c r="P2" t="n">
-        <v>54.96873767965459</v>
+        <v>54.96873767965458</v>
       </c>
       <c r="Q2" t="n">
         <v>41.27923276816995</v>
@@ -31083,7 +31083,7 @@
         <v>1.673320984293863</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03058039491570735</v>
+        <v>0.03058039491570736</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2045244218920218</v>
+        <v>0.2045244218920217</v>
       </c>
       <c r="H3" t="n">
         <v>1.975275337746631</v>
@@ -31138,7 +31138,7 @@
         <v>44.40781362177429</v>
       </c>
       <c r="M3" t="n">
-        <v>51.82182391536007</v>
+        <v>51.82182391536006</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
@@ -31159,7 +31159,7 @@
         <v>3.798951432950489</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8243769461349471</v>
+        <v>0.8243769461349469</v>
       </c>
       <c r="U3" t="n">
         <v>0.01345555407184354</v>
@@ -31223,16 +31223,16 @@
         <v>26.23903630522655</v>
       </c>
       <c r="O4" t="n">
-        <v>24.23599693896883</v>
+        <v>24.23599693896882</v>
       </c>
       <c r="P4" t="n">
         <v>20.73808227913822</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.35797323159518</v>
+        <v>14.35797323159517</v>
       </c>
       <c r="R4" t="n">
-        <v>7.709753078218404</v>
+        <v>7.709753078218403</v>
       </c>
       <c r="S4" t="n">
         <v>2.98819180164672</v>
@@ -31363,7 +31363,7 @@
         <v>2.194158781235853</v>
       </c>
       <c r="I6" t="n">
-        <v>7.822046518029719</v>
+        <v>7.82204651802972</v>
       </c>
       <c r="J6" t="n">
         <v>21.46429350890168</v>
@@ -31387,13 +31387,13 @@
         <v>43.3829632231819</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.00036202047604</v>
+        <v>29.00036202047605</v>
       </c>
       <c r="R6" t="n">
         <v>14.10559114767245</v>
       </c>
       <c r="S6" t="n">
-        <v>4.219919363548515</v>
+        <v>4.219919363548514</v>
       </c>
       <c r="T6" t="n">
         <v>0.9157274840852623</v>
@@ -31442,7 +31442,7 @@
         <v>1.693423657577749</v>
       </c>
       <c r="I7" t="n">
-        <v>5.72785834280899</v>
+        <v>5.727858342808991</v>
       </c>
       <c r="J7" t="n">
         <v>13.46600796010445</v>
@@ -31451,10 +31451,10 @@
         <v>22.12878767264174</v>
       </c>
       <c r="L7" t="n">
-        <v>28.31722954603936</v>
+        <v>28.31722954603937</v>
       </c>
       <c r="M7" t="n">
-        <v>29.85654818774346</v>
+        <v>29.85654818774347</v>
       </c>
       <c r="N7" t="n">
         <v>29.14662620450537</v>
@@ -31518,7 +31518,7 @@
         <v>0.4536596581076707</v>
       </c>
       <c r="H8" t="n">
-        <v>4.646041973595184</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I8" t="n">
         <v>17.48971396919599</v>
@@ -31527,13 +31527,13 @@
         <v>38.50379640731595</v>
       </c>
       <c r="K8" t="n">
-        <v>57.70720973501367</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L8" t="n">
         <v>71.5908964968263</v>
       </c>
       <c r="M8" t="n">
-        <v>79.6586664416986</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N8" t="n">
         <v>80.94762694529702</v>
@@ -31554,7 +31554,7 @@
         <v>10.33776945912856</v>
       </c>
       <c r="T8" t="n">
-        <v>1.985895153366329</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U8" t="n">
         <v>0.03629277264861365</v>
@@ -31609,7 +31609,7 @@
         <v>39.19546154336646</v>
       </c>
       <c r="L9" t="n">
-        <v>52.70313506544142</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -31621,10 +31621,10 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>46.35065335782625</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q9" t="n">
-        <v>30.98418428329678</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R9" t="n">
         <v>15.07050964521541</v>
@@ -31636,7 +31636,7 @@
         <v>0.9783694803583604</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0159690339557948</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H14" t="n">
-        <v>5.441094081970009</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I14" t="n">
         <v>20.48263440450618</v>
@@ -32004,7 +32004,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L14" t="n">
-        <v>83.84186054832006</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M14" t="n">
         <v>93.29022445704545</v>
@@ -32074,7 +32074,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I15" t="n">
-        <v>9.78723797828963</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J15" t="n">
         <v>26.85692908157158</v>
@@ -32098,13 +32098,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.28634065224731</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R15" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S15" t="n">
-        <v>5.280121380644147</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T15" t="n">
         <v>1.14579257350932</v>
@@ -32153,7 +32153,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I16" t="n">
-        <v>7.166911188495985</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J16" t="n">
         <v>16.84917421793629</v>
@@ -32174,7 +32174,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P16" t="n">
-        <v>28.82363556582543</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q16" t="n">
         <v>19.95599122044634</v>
@@ -32183,7 +32183,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S16" t="n">
-        <v>4.153255365280168</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T16" t="n">
         <v>1.018273355076515</v>
@@ -32940,7 +32940,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H26" t="n">
-        <v>5.441094081970009</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I26" t="n">
         <v>20.48263440450618</v>
@@ -32952,7 +32952,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L26" t="n">
-        <v>83.84186054832006</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
@@ -33022,7 +33022,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I27" t="n">
-        <v>9.78723797828963</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J27" t="n">
         <v>26.85692908157158</v>
@@ -33046,13 +33046,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.28634065224731</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R27" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S27" t="n">
-        <v>5.280121380644147</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T27" t="n">
         <v>1.14579257350932</v>
@@ -33101,7 +33101,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I28" t="n">
-        <v>7.166911188495985</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J28" t="n">
         <v>16.84917421793629</v>
@@ -33122,7 +33122,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P28" t="n">
-        <v>28.82363556582543</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q28" t="n">
         <v>19.95599122044634</v>
@@ -33131,7 +33131,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S28" t="n">
-        <v>4.153255365280168</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T28" t="n">
         <v>1.018273355076515</v>
@@ -34125,7 +34125,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H41" t="n">
-        <v>5.441094081970009</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I41" t="n">
         <v>20.48263440450618</v>
@@ -34137,7 +34137,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L41" t="n">
-        <v>83.84186054832006</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M41" t="n">
         <v>93.29022445704545</v>
@@ -34207,7 +34207,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I42" t="n">
-        <v>9.78723797828963</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J42" t="n">
         <v>26.85692908157158</v>
@@ -34231,13 +34231,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.28634065224731</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R42" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S42" t="n">
-        <v>5.280121380644147</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T42" t="n">
         <v>1.14579257350932</v>
@@ -34286,7 +34286,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I43" t="n">
-        <v>7.166911188495985</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J43" t="n">
         <v>16.84917421793629</v>
@@ -34307,7 +34307,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P43" t="n">
-        <v>28.82363556582543</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q43" t="n">
         <v>19.95599122044634</v>
@@ -34316,7 +34316,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S43" t="n">
-        <v>4.153255365280168</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T43" t="n">
         <v>1.018273355076515</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5530919757300298</v>
+        <v>0.531291988963262</v>
       </c>
       <c r="H44" t="n">
-        <v>5.664353196445169</v>
+        <v>5.441094081970009</v>
       </c>
       <c r="I44" t="n">
-        <v>21.32307839433199</v>
+        <v>20.48263440450618</v>
       </c>
       <c r="J44" t="n">
-        <v>46.94299007511665</v>
+        <v>45.0927434482707</v>
       </c>
       <c r="K44" t="n">
-        <v>70.35537340776884</v>
+        <v>67.5823333410856</v>
       </c>
       <c r="L44" t="n">
-        <v>87.28206196001675</v>
+        <v>83.84186054832006</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
@@ -34383,25 +34383,25 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>89.5167231054339</v>
       </c>
       <c r="P44" t="n">
-        <v>79.535317474948</v>
+        <v>76.40045212790335</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.72771109411629</v>
+        <v>57.37355777315651</v>
       </c>
       <c r="R44" t="n">
-        <v>34.74316382045151</v>
+        <v>33.37377040171354</v>
       </c>
       <c r="S44" t="n">
-        <v>12.60358339694807</v>
+        <v>12.10681619850035</v>
       </c>
       <c r="T44" t="n">
-        <v>2.421160123758207</v>
+        <v>2.325730681686681</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04424735805840237</v>
+        <v>0.04250335911706096</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2959302962597044</v>
+        <v>0.2842662750382211</v>
       </c>
       <c r="H45" t="n">
-        <v>2.858063650718724</v>
+        <v>2.745413761553346</v>
       </c>
       <c r="I45" t="n">
-        <v>10.18882818262579</v>
+        <v>9.78723797828963</v>
       </c>
       <c r="J45" t="n">
-        <v>27.95892329706269</v>
+        <v>26.85692908157158</v>
       </c>
       <c r="K45" t="n">
-        <v>47.78625314646288</v>
+        <v>45.90276950913239</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -34468,19 +34468,19 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.77524272957209</v>
+        <v>36.28634065224731</v>
       </c>
       <c r="R45" t="n">
-        <v>18.3736371660192</v>
+        <v>17.64944469053096</v>
       </c>
       <c r="S45" t="n">
-        <v>5.496775459034417</v>
+        <v>5.280121380644147</v>
       </c>
       <c r="T45" t="n">
-        <v>1.192806764309948</v>
+        <v>1.14579257350932</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01946909843813845</v>
+        <v>0.0187017286209356</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2480980194411959</v>
+        <v>0.2383192958689716</v>
       </c>
       <c r="H46" t="n">
-        <v>2.205816936486271</v>
+        <v>2.118875194180494</v>
       </c>
       <c r="I46" t="n">
-        <v>7.460984075558875</v>
+        <v>7.166911188495985</v>
       </c>
       <c r="J46" t="n">
-        <v>17.54052997449255</v>
+        <v>16.84917421793629</v>
       </c>
       <c r="K46" t="n">
-        <v>28.82447898598621</v>
+        <v>27.68836910186779</v>
       </c>
       <c r="L46" t="n">
-        <v>36.88540918128471</v>
+        <v>35.43157967855602</v>
       </c>
       <c r="M46" t="n">
-        <v>38.89049226567764</v>
+        <v>37.35763289698797</v>
       </c>
       <c r="N46" t="n">
-        <v>37.96576328412412</v>
+        <v>36.46935188511274</v>
       </c>
       <c r="O46" t="n">
-        <v>35.06752732974287</v>
+        <v>33.68534920155247</v>
       </c>
       <c r="P46" t="n">
-        <v>30.00632773314245</v>
+        <v>28.82363556582543</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.7748259733896</v>
+        <v>19.95599122044634</v>
       </c>
       <c r="R46" t="n">
-        <v>11.15538912869231</v>
+        <v>10.7157021578903</v>
       </c>
       <c r="S46" t="n">
-        <v>4.323671847897931</v>
+        <v>4.153255365280168</v>
       </c>
       <c r="T46" t="n">
-        <v>1.060055173976019</v>
+        <v>1.018273355076515</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01353261924224707</v>
+        <v>0.01299923432012574</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
